--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H2">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I2">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J2">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N2">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q2">
-        <v>0.102139122826</v>
+        <v>0.01097847452333333</v>
       </c>
       <c r="R2">
-        <v>0.4085564913040001</v>
+        <v>0.06587084713999999</v>
       </c>
       <c r="S2">
-        <v>0.02520665218857342</v>
+        <v>0.002271848650846512</v>
       </c>
       <c r="T2">
-        <v>0.01515028031607653</v>
+        <v>0.001877707919311064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H3">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I3">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J3">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q3">
-        <v>1.652362600309834</v>
+        <v>0.0872509783211111</v>
       </c>
       <c r="R3">
-        <v>9.914175601859002</v>
+        <v>0.78525880489</v>
       </c>
       <c r="S3">
-        <v>0.4077823286809585</v>
+        <v>0.01805542445469644</v>
       </c>
       <c r="T3">
-        <v>0.3676420340099489</v>
+        <v>0.02238451060932711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H4">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I4">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J4">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N4">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q4">
-        <v>0.06397249821666667</v>
+        <v>0.006109041096666666</v>
       </c>
       <c r="R4">
-        <v>0.3838349893</v>
+        <v>0.05498136986999999</v>
       </c>
       <c r="S4">
-        <v>0.01578760877875067</v>
+        <v>0.001264184449663787</v>
       </c>
       <c r="T4">
-        <v>0.01423354617240982</v>
+        <v>0.001567293546415891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H5">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I5">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J5">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N5">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q5">
-        <v>0.45987179990125</v>
+        <v>0.026747152425</v>
       </c>
       <c r="R5">
-        <v>1.839487199605</v>
+        <v>0.16048291455</v>
       </c>
       <c r="S5">
-        <v>0.1134905821659679</v>
+        <v>0.005534965902737493</v>
       </c>
       <c r="T5">
-        <v>0.06821271306423497</v>
+        <v>0.00457471024965257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H6">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I6">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J6">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N6">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q6">
-        <v>0.08621522983666668</v>
+        <v>0.001538194505555555</v>
       </c>
       <c r="R6">
-        <v>0.51729137902</v>
+        <v>0.01384375055</v>
       </c>
       <c r="S6">
-        <v>0.02127683547422806</v>
+        <v>0.0003183088055411251</v>
       </c>
       <c r="T6">
-        <v>0.01918243759199343</v>
+        <v>0.0003946285977688109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,19 +850,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H7">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I7">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J7">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N7">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O7">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P7">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q7">
-        <v>0.04483175672366668</v>
+        <v>0.005299596368888888</v>
       </c>
       <c r="R7">
-        <v>0.268990540342</v>
+        <v>0.04769636732</v>
       </c>
       <c r="S7">
-        <v>0.01106391427172646</v>
+        <v>0.001096680675908304</v>
       </c>
       <c r="T7">
-        <v>0.009974831327601751</v>
+        <v>0.001359627976983285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H8">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I8">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J8">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N8">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O8">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P8">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q8">
-        <v>0.005393330973333334</v>
+        <v>0.129792235984</v>
       </c>
       <c r="R8">
-        <v>0.03235998584</v>
+        <v>0.519168943936</v>
       </c>
       <c r="S8">
-        <v>0.00133100631982388</v>
+        <v>0.02685876945689475</v>
       </c>
       <c r="T8">
-        <v>0.001199987925624393</v>
+        <v>0.01479937908521316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H9">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I9">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J9">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>36.540661</v>
       </c>
       <c r="O9">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P9">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q9">
-        <v>0.08725097832111112</v>
+        <v>1.031518499589333</v>
       </c>
       <c r="R9">
-        <v>0.7852588048900001</v>
+        <v>6.189110997536</v>
       </c>
       <c r="S9">
-        <v>0.02153244518654867</v>
+        <v>0.213458974344253</v>
       </c>
       <c r="T9">
-        <v>0.02911932931668553</v>
+        <v>0.1764261921342666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H10">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I10">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J10">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N10">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O10">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P10">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q10">
-        <v>0.003377989222222223</v>
+        <v>0.07222370484799999</v>
       </c>
       <c r="R10">
-        <v>0.030401903</v>
+        <v>0.433342229088</v>
       </c>
       <c r="S10">
-        <v>0.0008336452973691529</v>
+        <v>0.01494573094552725</v>
       </c>
       <c r="T10">
-        <v>0.001127377394303705</v>
+        <v>0.01235281115485054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H11">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I11">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J11">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N11">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O11">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P11">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q11">
-        <v>0.02428296575833334</v>
+        <v>0.31621631148</v>
       </c>
       <c r="R11">
-        <v>0.14569779455</v>
+        <v>1.26486524592</v>
       </c>
       <c r="S11">
-        <v>0.005992730846338689</v>
+        <v>0.06543674160600738</v>
       </c>
       <c r="T11">
-        <v>0.00540283284160125</v>
+        <v>0.03605612486017468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H12">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I12">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J12">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N12">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O12">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P12">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q12">
-        <v>0.004552489355555556</v>
+        <v>0.01818519538666667</v>
       </c>
       <c r="R12">
-        <v>0.0409724042</v>
+        <v>0.10911117232</v>
       </c>
       <c r="S12">
-        <v>0.001123497173293334</v>
+        <v>0.003763183265286199</v>
       </c>
       <c r="T12">
-        <v>0.001519357596968656</v>
+        <v>0.003110312395332254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H13">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I13">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J13">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N13">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O13">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P13">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q13">
-        <v>0.002367285868888889</v>
+        <v>0.06265410199466666</v>
       </c>
       <c r="R13">
-        <v>0.02130557282</v>
+        <v>0.375924611968</v>
       </c>
       <c r="S13">
-        <v>0.0005842164087277379</v>
+        <v>0.01296542946691332</v>
       </c>
       <c r="T13">
-        <v>0.0007900630815761581</v>
+        <v>0.01071607018285346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H14">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I14">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J14">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N14">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O14">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P14">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q14">
-        <v>0.04815599568</v>
+        <v>0.2343539042733333</v>
       </c>
       <c r="R14">
-        <v>0.28893597408</v>
+        <v>1.40612342564</v>
       </c>
       <c r="S14">
-        <v>0.01188429467881833</v>
+        <v>0.04849640996227682</v>
       </c>
       <c r="T14">
-        <v>0.01071445710417908</v>
+        <v>0.04008281670101244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H15">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I15">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J15">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>36.540661</v>
       </c>
       <c r="O15">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P15">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q15">
-        <v>0.77904689252</v>
+        <v>1.862518091904444</v>
       </c>
       <c r="R15">
-        <v>7.01142203268</v>
+        <v>16.76266282714</v>
       </c>
       <c r="S15">
-        <v>0.1922589847554658</v>
+        <v>0.3854232393833153</v>
       </c>
       <c r="T15">
-        <v>0.260000786844375</v>
+        <v>0.4778348253570367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H16">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I16">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J16">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N16">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O16">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P16">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q16">
-        <v>0.030161404</v>
+        <v>0.1304077018466666</v>
       </c>
       <c r="R16">
-        <v>0.271452636</v>
+        <v>1.17366931662</v>
       </c>
       <c r="S16">
-        <v>0.007443455544867058</v>
+        <v>0.02698613189570804</v>
       </c>
       <c r="T16">
-        <v>0.01006613189478804</v>
+        <v>0.03345650262833067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H17">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I17">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J17">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N17">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O17">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P17">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q17">
-        <v>0.2168178441</v>
+        <v>0.5709627130499999</v>
       </c>
       <c r="R17">
-        <v>1.3009070646</v>
+        <v>3.4257762783</v>
       </c>
       <c r="S17">
-        <v>0.05350791972058946</v>
+        <v>0.1181531064784457</v>
       </c>
       <c r="T17">
-        <v>0.04824083600030003</v>
+        <v>0.09765484317941463</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H18">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I18">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J18">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N18">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O18">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P18">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q18">
-        <v>0.0406482856</v>
+        <v>0.03283533492222222</v>
       </c>
       <c r="R18">
-        <v>0.3658345704</v>
+        <v>0.2955180143</v>
       </c>
       <c r="S18">
-        <v>0.01003148616154141</v>
+        <v>0.006794833943877884</v>
       </c>
       <c r="T18">
-        <v>0.01356604633347351</v>
+        <v>0.008424007582152832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H19">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I19">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J19">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N19">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O19">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P19">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q19">
-        <v>0.02113703176</v>
+        <v>0.1131287500355555</v>
       </c>
       <c r="R19">
-        <v>0.19023328584</v>
+        <v>1.01815875032</v>
       </c>
       <c r="S19">
-        <v>0.005216353862572283</v>
+        <v>0.02341048363267451</v>
       </c>
       <c r="T19">
-        <v>0.007054318478028534</v>
+        <v>0.02902353365106153</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H20">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I20">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J20">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N20">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O20">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P20">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q20">
-        <v>0.01608713426666667</v>
+        <v>0.009526087223666668</v>
       </c>
       <c r="R20">
-        <v>0.09652280560000001</v>
+        <v>0.05715652334200001</v>
       </c>
       <c r="S20">
-        <v>0.00397010261054959</v>
+        <v>0.001971296500341317</v>
       </c>
       <c r="T20">
-        <v>0.003579303212309147</v>
+        <v>0.001629298258324495</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H21">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I21">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J21">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>36.540661</v>
       </c>
       <c r="O21">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P21">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q21">
-        <v>0.2602507077888889</v>
+        <v>0.07570818951855555</v>
       </c>
       <c r="R21">
-        <v>2.3422563701</v>
+        <v>0.6813737056670001</v>
       </c>
       <c r="S21">
-        <v>0.06422660476769521</v>
+        <v>0.01566679850194158</v>
       </c>
       <c r="T21">
-        <v>0.08685663141924348</v>
+        <v>0.01942317214202525</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,16 +1783,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H22">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I22">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J22">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N22">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O22">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P22">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q22">
-        <v>0.01007580777777778</v>
+        <v>0.005300851062333333</v>
       </c>
       <c r="R22">
-        <v>0.09068227000000001</v>
+        <v>0.047707659561</v>
       </c>
       <c r="S22">
-        <v>0.002486582762278395</v>
+        <v>0.001096940317956289</v>
       </c>
       <c r="T22">
-        <v>0.003362721776401466</v>
+        <v>0.001359949872499634</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H23">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I23">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J23">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N23">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O23">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P23">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q23">
-        <v>0.07243080991666667</v>
+        <v>0.0232086622275</v>
       </c>
       <c r="R23">
-        <v>0.4345848595</v>
+        <v>0.139251973365</v>
       </c>
       <c r="S23">
-        <v>0.01787501383202932</v>
+        <v>0.004802722623934204</v>
       </c>
       <c r="T23">
-        <v>0.01611547627485529</v>
+        <v>0.003969503118905142</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,16 +1907,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H24">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I24">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J24">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N24">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O24">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P24">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q24">
-        <v>0.01357908644444445</v>
+        <v>0.001334700462777778</v>
       </c>
       <c r="R24">
-        <v>0.122211778</v>
+        <v>0.012012304165</v>
       </c>
       <c r="S24">
-        <v>0.003351147920339819</v>
+        <v>0.0002761984316856846</v>
       </c>
       <c r="T24">
-        <v>0.004531913539585429</v>
+        <v>0.0003424215664306662</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H25">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I25">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J25">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3304726666666667</v>
+        <v>0.7398226666666666</v>
       </c>
       <c r="N25">
-        <v>0.991418</v>
+        <v>2.219468</v>
       </c>
       <c r="O25">
-        <v>0.01860707513397334</v>
+        <v>0.03842419007906348</v>
       </c>
       <c r="P25">
-        <v>0.02017579937064208</v>
+        <v>0.04227898904155473</v>
       </c>
       <c r="Q25">
-        <v>0.007061099311111113</v>
+        <v>0.004598491088444444</v>
       </c>
       <c r="R25">
-        <v>0.06354989380000001</v>
+        <v>0.041386419796</v>
       </c>
       <c r="S25">
-        <v>0.001742590590946859</v>
+        <v>0.0009515963035673404</v>
       </c>
       <c r="T25">
-        <v>0.002356586483435632</v>
+        <v>0.00117975723065646</v>
       </c>
     </row>
   </sheetData>
